--- a/GlasgowJobs.xlsx
+++ b/GlasgowJobs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="305">
   <si>
     <t>Title</t>
   </si>
@@ -37,694 +37,898 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Assistant Store Manager</t>
+  </si>
+  <si>
+    <t>Assistant Venue Manager</t>
+  </si>
+  <si>
+    <t>Assistant manager</t>
+  </si>
+  <si>
+    <t>Assistant Manager</t>
+  </si>
+  <si>
+    <t>Assistant General Manager - Glasgow</t>
+  </si>
+  <si>
+    <t>General and Assistant General Manager</t>
+  </si>
+  <si>
+    <t>Assistant Manager - Flannels</t>
+  </si>
+  <si>
+    <t>Assistant Manager- Gordon Street Coffee</t>
+  </si>
+  <si>
+    <t>Assistant Restaurant Manager</t>
+  </si>
+  <si>
+    <t>Assistant Project Manager</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage Assistant Manager</t>
+  </si>
+  <si>
+    <t>Assistant Racing Manager</t>
+  </si>
+  <si>
+    <t>Deputy General Manager One Devonshire Gardens</t>
+  </si>
+  <si>
+    <t>ID2022-3554 - Assistant Finance Manager</t>
+  </si>
+  <si>
+    <t>Assistant Accommodation Manager</t>
+  </si>
+  <si>
+    <t>Associate Delivery Manager (Delivery Team Support)</t>
+  </si>
+  <si>
+    <t>Medical Laboratory Assistant Reception Supervisor</t>
+  </si>
+  <si>
+    <t>Identity and Access Management - Assistant Manager</t>
+  </si>
+  <si>
+    <t>Assistant Manager, Gordon Street Coffee</t>
+  </si>
+  <si>
+    <t>Assistant Manager (Sport &amp; Leisure)</t>
+  </si>
+  <si>
+    <t>Deputy General Manager</t>
+  </si>
+  <si>
+    <t>Assistant Manager/Operations Manager - Part-time</t>
+  </si>
+  <si>
+    <t>Assistant General Manager - Sloans</t>
+  </si>
+  <si>
+    <t>SEHSCT_Deputy Endoscopy Manager (Band 6) Permanent</t>
+  </si>
+  <si>
+    <t>Coffee Shop Assistant Manager</t>
+  </si>
+  <si>
     <t>Assistant General Manager</t>
   </si>
   <si>
-    <t>Retail Assistant Manager</t>
-  </si>
-  <si>
-    <t>Assistant Venue Manager</t>
-  </si>
-  <si>
-    <t>Trainee Assistant Manager</t>
-  </si>
-  <si>
-    <t>Assistant Manager- Gordon Street Coffee</t>
-  </si>
-  <si>
-    <t>Assistant General Manager - Glasgow</t>
-  </si>
-  <si>
-    <t>Assistant Manager</t>
-  </si>
-  <si>
-    <t>Assistant Project Manager</t>
-  </si>
-  <si>
-    <t>Assistant Night Manager</t>
-  </si>
-  <si>
-    <t>Assistant Manager - Chopstix Silverburn</t>
-  </si>
-  <si>
-    <t>Office Manager/Executive Assistant</t>
-  </si>
-  <si>
-    <t>ID2022-3554 - Assistant Finance Manager</t>
-  </si>
-  <si>
-    <t>Assistant Restaurant Manager</t>
-  </si>
-  <si>
-    <t>Assistant Health Club Manager</t>
-  </si>
-  <si>
-    <t>Assistant Relationship Manager (12 months)</t>
-  </si>
-  <si>
-    <t>Food &amp; Beverage Assistant Manager</t>
+    <t>Assistant Payroll Manager</t>
+  </si>
+  <si>
+    <t>Assistant Store Manager - Supermarkets</t>
+  </si>
+  <si>
+    <t>Assistant Store Manager - Braehead</t>
   </si>
   <si>
     <t>Assistant Brand Manager</t>
   </si>
   <si>
-    <t>Assistant Store Manager</t>
-  </si>
-  <si>
-    <t>Assistant Policy Manager</t>
-  </si>
-  <si>
-    <t>Assistant Manager - Flannels</t>
-  </si>
-  <si>
-    <t>Assistant Store Manager [Fendi Heathrow T4]</t>
-  </si>
-  <si>
-    <t>Assistant Manager, Gordon Street Coffee</t>
-  </si>
-  <si>
-    <t>Assistant Manager, Cash Settlements &amp; Confirmations, Markets...</t>
-  </si>
-  <si>
-    <t>Assistant/Trainee Property Manager - Career opportunity</t>
-  </si>
-  <si>
-    <t>Trainee Assistant Site Manager</t>
-  </si>
-  <si>
-    <t>Assistant Manager - Operations</t>
-  </si>
-  <si>
-    <t>Assistant Store Manager - Braehead</t>
-  </si>
-  <si>
-    <t>Prada - Assistant Store Manager</t>
-  </si>
-  <si>
-    <t>Assistant Store Manager - Frasers</t>
-  </si>
-  <si>
-    <t>Assistant Manager - Glasgow St Enoch</t>
-  </si>
-  <si>
-    <t>Hotel Assistant Manager Live In Available</t>
+    <t>Assistant Manager - Glasgow</t>
+  </si>
+  <si>
+    <t>Assistant Site Manager</t>
+  </si>
+  <si>
+    <t>Assistant Warehouse Manager</t>
+  </si>
+  <si>
+    <t>Assistant Block Manager</t>
+  </si>
+  <si>
+    <t>Deputy Manager (Domiciliary Care)</t>
+  </si>
+  <si>
+    <t>Assistant Conference &amp; Banqueting Manager</t>
+  </si>
+  <si>
+    <t>DFS Furniture Stores</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Gamba</t>
+  </si>
+  <si>
+    <t>Savoy Nightclub</t>
+  </si>
+  <si>
+    <t>HY Hospitality Group</t>
+  </si>
+  <si>
+    <t>The Alchemist Bar &amp; Restaurant</t>
+  </si>
+  <si>
+    <t>Wonder World Group</t>
+  </si>
+  <si>
+    <t>Blue Lagoon Fish &amp; Chips</t>
+  </si>
+  <si>
+    <t>Flannels</t>
+  </si>
+  <si>
+    <t>ABERDAM Dutch Fries</t>
+  </si>
+  <si>
+    <t>The Foundation Group (Glendola Leisure)</t>
+  </si>
+  <si>
+    <t>Peacocks</t>
+  </si>
+  <si>
+    <t>Fraser Hart</t>
+  </si>
+  <si>
+    <t>Celinos</t>
+  </si>
+  <si>
+    <t>SSE PLC</t>
+  </si>
+  <si>
+    <t>Spark of Genius</t>
+  </si>
+  <si>
+    <t>Jones Bootmaker</t>
+  </si>
+  <si>
+    <t>Marstons Plc - Queen of the Loch</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Marriott International, Inc</t>
+  </si>
+  <si>
+    <t>Oxford Stadium Ltd</t>
+  </si>
+  <si>
+    <t>One Devonshire Gardens</t>
+  </si>
+  <si>
+    <t>Sopra Steria</t>
+  </si>
+  <si>
+    <t>Farmhouse Inns</t>
+  </si>
+  <si>
+    <t>Card Factory</t>
+  </si>
+  <si>
+    <t>The Corinthian Club</t>
+  </si>
+  <si>
+    <t>Social Security Scotland</t>
+  </si>
+  <si>
+    <t>Sanctuary</t>
+  </si>
+  <si>
+    <t>German Doner Kebab Glasgow</t>
+  </si>
+  <si>
+    <t>Restaurant Growth</t>
+  </si>
+  <si>
+    <t>HM Revenue and Customs</t>
+  </si>
+  <si>
+    <t>NHS Scotland</t>
+  </si>
+  <si>
+    <t>KPMG</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Garvie and Co</t>
+  </si>
+  <si>
+    <t>Wickes</t>
+  </si>
+  <si>
+    <t>itison</t>
+  </si>
+  <si>
+    <t>The Ivy Buchanan Street</t>
+  </si>
+  <si>
+    <t>Health and Social Care Trust</t>
+  </si>
+  <si>
+    <t>Alessio's</t>
+  </si>
+  <si>
+    <t>Gryffe Valley Pubs</t>
+  </si>
+  <si>
+    <t>McConechys</t>
+  </si>
+  <si>
+    <t>The Portfolio Group</t>
+  </si>
+  <si>
+    <t>Caffe Nero Glasgow Capella</t>
   </si>
   <si>
     <t>Stravaigin</t>
   </si>
   <si>
-    <t>French Connection</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>Savoy Nightclub</t>
-  </si>
-  <si>
-    <t>Gordon St Coffee - Glasgow</t>
-  </si>
-  <si>
-    <t>The Alchemist Bar &amp; Restaurant</t>
-  </si>
-  <si>
-    <t>Brewdog Plc</t>
-  </si>
-  <si>
-    <t>SSE</t>
-  </si>
-  <si>
-    <t>Hilton Glasgow Hotel</t>
-  </si>
-  <si>
-    <t>Chopstix</t>
-  </si>
-  <si>
-    <t>Fraser Hart</t>
-  </si>
-  <si>
-    <t>Taylorson Group</t>
-  </si>
-  <si>
-    <t>Social Security Scotland</t>
-  </si>
-  <si>
-    <t>Celino's Italian Glasgow</t>
-  </si>
-  <si>
-    <t>1051 GWR Bar &amp; Grill</t>
-  </si>
-  <si>
-    <t>Hilton</t>
-  </si>
-  <si>
-    <t>RBS International</t>
-  </si>
-  <si>
-    <t>Marriott International, Inc</t>
+    <t>ASDA</t>
+  </si>
+  <si>
+    <t>Clockwise</t>
+  </si>
+  <si>
+    <t>Balloch House</t>
+  </si>
+  <si>
+    <t>Footasylum</t>
   </si>
   <si>
     <t>Carlsberg Marston’s Brewing Company</t>
   </si>
   <si>
-    <t>Michael Kors</t>
-  </si>
-  <si>
-    <t>Ofgem</t>
-  </si>
-  <si>
-    <t>skːn Clinics</t>
-  </si>
-  <si>
-    <t>Flannels</t>
-  </si>
-  <si>
-    <t>Fendi</t>
-  </si>
-  <si>
-    <t>The Foundation Group (Glendola Leisure)</t>
-  </si>
-  <si>
-    <t>Lloyds Banking Group</t>
-  </si>
-  <si>
-    <t>Five Guys</t>
-  </si>
-  <si>
-    <t>Scottish Property Jobs</t>
-  </si>
-  <si>
-    <t>Taylor Wimpey</t>
-  </si>
-  <si>
-    <t>German Doner Kebab Glasgow</t>
-  </si>
-  <si>
-    <t>Clockwise</t>
-  </si>
-  <si>
-    <t>Three Craws</t>
-  </si>
-  <si>
-    <t>Spark of Genius</t>
-  </si>
-  <si>
-    <t>Old Plane Tree (92260)</t>
-  </si>
-  <si>
-    <t>OSC Recruitment</t>
-  </si>
-  <si>
-    <t>Footasylum</t>
-  </si>
-  <si>
-    <t>Prada</t>
-  </si>
-  <si>
-    <t>Frasers</t>
-  </si>
-  <si>
-    <t>Pandora Jewelry</t>
-  </si>
-  <si>
-    <t>Prezzo Glasgow 2</t>
-  </si>
-  <si>
-    <t>Appleby Manor country house hotel</t>
+    <t>Las Iguanas</t>
+  </si>
+  <si>
+    <t>Barratt Developments Plc</t>
+  </si>
+  <si>
+    <t>United Wholesale(Scotland)</t>
+  </si>
+  <si>
+    <t>ONE PROPERTY RECRUITMENT LTD</t>
+  </si>
+  <si>
+    <t>J C Michael Groups Ltd</t>
+  </si>
+  <si>
+    <t>Mott MacDonald</t>
+  </si>
+  <si>
+    <t>Glasgow Grosvenor Hotel</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Glasgow G2</t>
+  </si>
+  <si>
+    <t>Glasgow+2 locations</t>
+  </si>
+  <si>
+    <t>Glasgow G34</t>
+  </si>
+  <si>
+    <t>Glasgow G5</t>
+  </si>
+  <si>
+    <t>Glasgow G1</t>
+  </si>
+  <si>
+    <t>Cumbernauld+28 locations</t>
+  </si>
+  <si>
+    <t>Glasgow G31</t>
+  </si>
+  <si>
+    <t>+4 locationsRemote</t>
+  </si>
+  <si>
+    <t>Mauchline KA5+1 location</t>
+  </si>
+  <si>
+    <t>Glasgow G1+2 locations</t>
+  </si>
+  <si>
+    <t>Balloch G83+57 locations</t>
+  </si>
+  <si>
+    <t>Glasgow G3</t>
+  </si>
+  <si>
+    <t>Oxford OX4</t>
   </si>
   <si>
     <t>Glasgow G12</t>
   </si>
   <si>
-    <t>Glasgow G1</t>
-  </si>
-  <si>
-    <t>Glasgow G2</t>
-  </si>
-  <si>
-    <t>Glasgow+2 locations</t>
-  </si>
-  <si>
-    <t>Glasgow G1+5 locations</t>
-  </si>
-  <si>
-    <t>+4 locationsRemote</t>
-  </si>
-  <si>
-    <t>Glasgow G3</t>
-  </si>
-  <si>
-    <t>Glasgow G53</t>
-  </si>
-  <si>
-    <t>London E8</t>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>Glasgow G33+2 locations</t>
+  </si>
+  <si>
+    <t>Stockton-On-Tees TS17+55 locations</t>
   </si>
   <si>
     <t>Glasgow+1 location</t>
   </si>
   <si>
-    <t>Glasgow G31</t>
-  </si>
-  <si>
-    <t>Gibraltar+1 location</t>
-  </si>
-  <si>
-    <t>Remote</t>
-  </si>
-  <si>
-    <t>Glasgow G1+1 location</t>
-  </si>
-  <si>
-    <t>Glasgow G34</t>
-  </si>
-  <si>
-    <t>London Heathrow Airport</t>
+    <t>Glasgow G64</t>
+  </si>
+  <si>
+    <t>Kilmarnock KA2</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Glasgow G41</t>
+  </si>
+  <si>
+    <t>Glasgow G62</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Glasgow G66</t>
+  </si>
+  <si>
+    <t>Johnstone</t>
+  </si>
+  <si>
+    <t>Glasgow+43 locations</t>
   </si>
   <si>
     <t>Hybrid remote in London</t>
   </si>
   <si>
-    <t>Edinburgh+48 locations</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Borehamwood+1 location</t>
-  </si>
-  <si>
-    <t>Glasgow G11</t>
-  </si>
-  <si>
-    <t>Mauchline KA5+1 location</t>
-  </si>
-  <si>
-    <t>Knightsbridge</t>
+    <t>Cumnock KA18</t>
+  </si>
+  <si>
+    <t>Alexandria G83</t>
   </si>
   <si>
     <t>Glasgow G51</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Glasgow+8 locations</t>
-  </si>
-  <si>
-    <t>Appleby-In-Westmorland CA16</t>
+    <t>Glasgow G1+6 locations</t>
+  </si>
+  <si>
+    <t>Nottingham NG1+5 locations</t>
+  </si>
+  <si>
+    <t>Glasgow G33</t>
+  </si>
+  <si>
+    <t>Remote in Covent Garden+1 location</t>
+  </si>
+  <si>
+    <t>Bristol+5 locations</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=a477287423f067d9</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=e7bfca102a9f49a8</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=c9c5dda56c4d4d58</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=cff3fe3553c380e5</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=130b741f7def4cab</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=550792536ff3fcb0</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=4fd78a1f5d8a4bb0</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=10d10a7b11ba4d89</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=6cb507636987a6da</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=443c86b4cd2f54d1</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=919a8677d96ef7fe</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=4e8d6110c3bf01fa</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=81044062c10be0eb</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=ec1e6b66f3f78dce</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=fc5f2b2e3c70632e</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=5168d9ef7b4fd08a</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=94fb15cd7d2364a9</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=c6f1a33451b2a7f8</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=37329323f559be94</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=6b8d6b1eadcbc823</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=9a8243ee98e9b589</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=9c05f843a646d8f5</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=042757a3e664db03</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=32ad18e7366bb37b</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=147bff0d92e7effc</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=04a88b5c5aa44051</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=5f91e5424899ebf0</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=ae608027da7e83fd</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=afba0d9bcaca750d</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=d86c8eda56135639</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=87652bdc7efcd08c</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=e957714a13b36880</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=37462b8b1beb1b87</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=450013ffed40c1d0</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=37bb6b351a26fee2</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=dd0c2775a709a078</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=97455a22f5ca97ba</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=4d3e895158ad60c8</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=c6fe8cca6ffd54da</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=359b7efa8356aea9</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=98b5acb7313a10f3</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=bf45fa391483e391</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=fcbd88831e49431d</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=b08cd5666a9ec44e</t>
   </si>
   <si>
     <t>https://uk.indeed.com/viewjob?jk=990c1b1d66698dc5</t>
   </si>
   <si>
-    <t>https://uk.indeed.com/viewjob?jk=109b5c4ad56f924b</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=e7bfca102a9f49a8</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=cff3fe3553c380e5</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=774b2a4fc750822e</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=550792536ff3fcb0</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=a59ef542d879b4be</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=fc5f2b2e3c70632e</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=5daaa3109f2cbd33</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=8b2269a244df1dc8</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=81044062c10be0eb</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=f82fe5c30e45313c</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=04a88b5c5aa44051</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=ec1e6b66f3f78dce</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=29f79202457f4262</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=8a8c607fa5654ac7</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=d75efe66ce204400</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=37329323f559be94</t>
+    <t>https://uk.indeed.com/viewjob?jk=d3ad0bf064fe45ac</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=ca32562adac7ad12</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=bd082e6561f75a25</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=e4977bf64cf85fab</t>
   </si>
   <si>
     <t>https://uk.indeed.com/viewjob?jk=42d9d0c233c71177</t>
   </si>
   <si>
-    <t>https://uk.indeed.com/viewjob?jk=b3299045b3af1f1a</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=fae6d5ffcc33fffa</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=53765a97ac3ea646</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=6cb507636987a6da</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=e254c56f5fa494c7</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=37462b8b1beb1b87</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=531dcc20cc7f4e22</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=f786a26d3fed1958</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=1ae0e67091c5250e</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=febea7a1f53c20c8</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=ae608027da7e83fd</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=ca32562adac7ad12</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=16767a4d98d39d8a</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=5168d9ef7b4fd08a</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=a515e0278446c6c6</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=939bc53003a9826a</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=e4977bf64cf85fab</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=6680a8297ab0cd97</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=1eb97122b09c8b68</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=7b618415b078214b</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=c71dd44dfb28866c</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/viewjob?jk=81a69de511807f08</t>
+    <t>https://uk.indeed.com/viewjob?jk=aab1b85969fe15d1</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=d155f19557ce252d</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=80a54c9b5880b3fc</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=f64711c9f3e55fe2</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=4be69e395c037b5d</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=c0b994db6a7170a5</t>
+  </si>
+  <si>
+    <t>https://uk.indeed.com/viewjob?jk=18c4a1645c4473cf</t>
+  </si>
+  <si>
+    <t>PostedPosted 2 days ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 15 days ago</t>
+  </si>
+  <si>
+    <t>EmployerActive 3 days ago</t>
+  </si>
+  <si>
+    <t>PostedToday</t>
+  </si>
+  <si>
+    <t>EmployerActive 6 days ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 30+ days ago</t>
+  </si>
+  <si>
+    <t>PostedJust posted</t>
+  </si>
+  <si>
+    <t>PostedPosted 7 days ago</t>
+  </si>
+  <si>
+    <t>EmployerActive 2 days ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 16 days ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 1 day ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 3 days ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 9 days ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 14 days ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 6 days ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 10 days ago</t>
+  </si>
+  <si>
+    <t>PostedPosted 8 days ago</t>
+  </si>
+  <si>
+    <t>Posted30+ days ago</t>
+  </si>
+  <si>
+    <t>Posted2 days ago</t>
+  </si>
+  <si>
+    <t>Posted16 days ago</t>
+  </si>
+  <si>
+    <t>EmployerActive 8 days ago</t>
   </si>
   <si>
     <t>EmployerActive 4 days ago</t>
   </si>
   <si>
-    <t>Posted11 days ago</t>
-  </si>
-  <si>
-    <t>PostedToday</t>
+    <t>EmployerActive 7 days ago</t>
+  </si>
+  <si>
+    <t>Posted9 days ago</t>
   </si>
   <si>
     <t>Posted3 days ago</t>
   </si>
   <si>
-    <t>EmployerActive 3 days ago</t>
-  </si>
-  <si>
-    <t>Posted12 days ago</t>
+    <t>Employer30+ days ago</t>
+  </si>
+  <si>
+    <t>Posted1 day ago</t>
+  </si>
+  <si>
+    <t>Posted10 days ago</t>
+  </si>
+  <si>
+    <t>Posted7 days ago</t>
+  </si>
+  <si>
+    <t>Posted14 days ago</t>
   </si>
   <si>
     <t>Posted6 days ago</t>
   </si>
   <si>
-    <t>Posted2 days ago</t>
-  </si>
-  <si>
-    <t>EmployerActive 2 days ago</t>
-  </si>
-  <si>
-    <t>PostedPosted 2 days ago</t>
-  </si>
-  <si>
-    <t>PostedPosted 5 days ago</t>
-  </si>
-  <si>
-    <t>PostedPosted 3 days ago</t>
-  </si>
-  <si>
-    <t>PostedPosted 12 days ago</t>
-  </si>
-  <si>
-    <t>PostedPosted 30+ days ago</t>
-  </si>
-  <si>
-    <t>EmployerActive 8 days ago</t>
-  </si>
-  <si>
-    <t>PostedPosted 4 days ago</t>
-  </si>
-  <si>
-    <t>PostedPosted 6 days ago</t>
-  </si>
-  <si>
-    <t>PostedPosted 9 days ago</t>
-  </si>
-  <si>
-    <t>Posted9 days ago</t>
-  </si>
-  <si>
-    <t>Posted1 day ago</t>
-  </si>
-  <si>
-    <t>Posted5 days ago</t>
-  </si>
-  <si>
-    <t>Posted30+ days ago</t>
-  </si>
-  <si>
-    <t>Posted4 days ago</t>
-  </si>
-  <si>
-    <t>Posted13 days ago</t>
-  </si>
-  <si>
-    <t>PostedPosted 1 day ago</t>
+    <t>Posted8 days ago</t>
+  </si>
+  <si>
+    <t>£65,000 a year</t>
+  </si>
+  <si>
+    <t>£26,000 a year</t>
+  </si>
+  <si>
+    <t>£27,000 a year</t>
+  </si>
+  <si>
+    <t>£21,000 - £23,000 a year</t>
+  </si>
+  <si>
+    <t>From £24,000 a year</t>
+  </si>
+  <si>
+    <t>From £30,000 a year</t>
+  </si>
+  <si>
+    <t>£22,000 - £30,000 a year</t>
+  </si>
+  <si>
+    <t>From £11 an hour</t>
+  </si>
+  <si>
+    <t>£25,250 - £35,000 a year</t>
+  </si>
+  <si>
+    <t>£21,665 - £23,000 a year</t>
+  </si>
+  <si>
+    <t>Not Declared</t>
+  </si>
+  <si>
+    <t>£10 - £11 an hour</t>
+  </si>
+  <si>
+    <t>£32,600 - £48,800 a year</t>
+  </si>
+  <si>
+    <t>£32,670 - £35,220 a year</t>
+  </si>
+  <si>
+    <t>£20,943 a year</t>
+  </si>
+  <si>
+    <t>From £28,000 a year</t>
+  </si>
+  <si>
+    <t>£40,000 - £45,000 a year</t>
+  </si>
+  <si>
+    <t>Up to £28,000 a year</t>
+  </si>
+  <si>
+    <t>£9.72 an hour</t>
+  </si>
+  <si>
+    <t>£31,542 - £36,129 a year</t>
+  </si>
+  <si>
+    <t>£21,712 - £22,855 a year</t>
+  </si>
+  <si>
+    <t>£25,000 a year</t>
+  </si>
+  <si>
+    <t>From £26,000 a year</t>
+  </si>
+  <si>
+    <t>£34,404 - £36,985 a year</t>
+  </si>
+  <si>
+    <t>£23,709 - £25,982 a year</t>
+  </si>
+  <si>
+    <t>£24,440 a year</t>
+  </si>
+  <si>
+    <t>£21,500 - £24,500 a year</t>
+  </si>
+  <si>
+    <t>£32,000 - £39,000 a year</t>
+  </si>
+  <si>
+    <t>£10.50 an hour</t>
+  </si>
+  <si>
+    <t>£23,500 - £26,500 a year</t>
+  </si>
+  <si>
+    <t>£55,000 - £60,000 a year</t>
   </si>
   <si>
     <t>£31,000 - £35,000 a year</t>
   </si>
   <si>
-    <t>£21,000 - £23,000 a year</t>
-  </si>
-  <si>
-    <t>£26,000 a year</t>
-  </si>
-  <si>
-    <t>£10 - £15 an hour</t>
-  </si>
-  <si>
-    <t>Not Declared</t>
-  </si>
-  <si>
-    <t>From £30,000 a year</t>
-  </si>
-  <si>
-    <t>£32,600 - £48,800 a year</t>
-  </si>
-  <si>
-    <t>Up to £22,308 a year</t>
-  </si>
-  <si>
-    <t>£24,000 - £26,000 a year</t>
-  </si>
-  <si>
-    <t>£40,000 - £50,000 a year</t>
-  </si>
-  <si>
-    <t>£31,542 - £36,129 a year</t>
-  </si>
-  <si>
-    <t>£10 - £11 an hour</t>
-  </si>
-  <si>
-    <t>£25,000 - £32,000 a year</t>
-  </si>
-  <si>
-    <t>Up to £24,000 a year</t>
-  </si>
-  <si>
-    <t>£23,641 - £29,382 a year</t>
-  </si>
-  <si>
-    <t>Up to £23,000 a year</t>
-  </si>
-  <si>
-    <t>£25,250 - £35,000 a year</t>
-  </si>
-  <si>
-    <t>£24,440 a year</t>
-  </si>
-  <si>
-    <t>£38,632 - £48,290 a year</t>
-  </si>
-  <si>
-    <t>£28,750 a year</t>
-  </si>
-  <si>
-    <t>£21,000 - £22,000 a year</t>
-  </si>
-  <si>
-    <t>£25,000 a year</t>
-  </si>
-  <si>
     <t>Up to £27,000 a year</t>
   </si>
   <si>
-    <t>£32,670 - £35,220 a year</t>
-  </si>
-  <si>
-    <t>Up to £12 an hour</t>
-  </si>
-  <si>
-    <t>Up to £32,000 a year</t>
-  </si>
-  <si>
-    <t>£34,750 a year</t>
-  </si>
-  <si>
-    <t>Up to £28,500 a year</t>
+    <t>£25,000 - £28,000 a year</t>
+  </si>
+  <si>
+    <t>£26,500 - £28,000 a year</t>
+  </si>
+  <si>
+    <t>£24,000 - £28,000 a year</t>
+  </si>
+  <si>
+    <t>£35,000 a year</t>
+  </si>
+  <si>
+    <t>£30,000 a year</t>
+  </si>
+  <si>
+    <t>From £25,000 a year</t>
+  </si>
+  <si>
+    <t>They coach, motivate, and inspire their colleagues to produce outstanding performance which is demonstrated through a customer experience second to none.</t>
+  </si>
+  <si>
+    <t>We are looking for someone who loves to coach and lead teams in creating a welcoming &amp; inviting experience for all our guests.</t>
+  </si>
+  <si>
+    <t>You would have responsability for assistaning the manager in the day to day running of the restaurant, cashing up, locking up and running the shifts the manager…</t>
+  </si>
+  <si>
+    <t>Day to day running of the business.</t>
+  </si>
+  <si>
+    <t>45 hour contracted working week.</t>
+  </si>
+  <si>
+    <t>You will begin to learn, Profits &amp; Loss, Sales Forecasting, Financial Budgets, Management training, Compliance, while continually supporting the General Manager…</t>
+  </si>
+  <si>
+    <t>Required to work non traditional hours, weekends, evenings, holidays, over-time may be required.*.</t>
+  </si>
+  <si>
+    <t>You will be fully trained in all aspects which include but not exhausted to working in restaurant, takeaway, frying, running the pass.</t>
+  </si>
+  <si>
+    <t>Trend aware, fashion conscious and well presented at all times.</t>
+  </si>
+  <si>
+    <t>Our flagship site see over 1000 orders a week pass through it's kitchen in 5 days.</t>
+  </si>
+  <si>
+    <t>This is a full-time role, ideal for someone from a small batch background looking to develop their management skills, or alternatively someone from a volume…</t>
+  </si>
+  <si>
+    <t>As Assistant Store Manager we are looking for a well rounded and commercial ‘retail manager’ who is proactive in their approach and can work using their own…</t>
+  </si>
+  <si>
+    <t>An Assistant Manager in a Fraser Hart store will use a variety of leadership skills to drive sales, achieve KPI’s and ultimately maximise store performance.</t>
+  </si>
+  <si>
+    <t>The successful candidate will have experience in a similar role or if you are looking to progress into management full training will be given.</t>
+  </si>
+  <si>
+    <t>Lead the co-ordination of and provide input to, the production of design and build specifications, invitations to tender and tender assessments to ensure they…</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Driving Licence</t>
+  </si>
+  <si>
+    <t>The role will be full time working 4-5 shifts per week both weekdays and weekends therefore flexibility is key.</t>
+  </si>
+  <si>
+    <t>To work well in a team environment supporting other managers, staff and chefs.</t>
+  </si>
+  <si>
+    <t>£1,000 signing on bonus, paid in 2 x £500 instalments, one in your first month's pay and one after 12 months' service.</t>
+  </si>
+  <si>
+    <t>Confident with manual payroll/use of spreadsheets &amp; Excel.</t>
+  </si>
+  <si>
+    <t>As an Assistant Manager you will support in the running of the store, providing great customer service and the best standards of coffee and food.</t>
   </si>
   <si>
     <t>To implement and maintain training schedule and ensure all team members are fully verse in training requirements.</t>
   </si>
   <si>
-    <t>The ability to excel in a commercially focused environment.</t>
-  </si>
-  <si>
-    <t>We are looking for someone who loves to coach and lead teams in creating a welcoming &amp; inviting experience for all our guests.</t>
-  </si>
-  <si>
-    <t>Day to day running of the business.</t>
-  </si>
-  <si>
-    <t>This is a full-time role, ideal for someone from a small batch background looking to develop their management skills, or alternatively someone from a volume…</t>
-  </si>
-  <si>
-    <t>You will begin to learn, Profits &amp; Loss, Sales Forecasting, Financial Budgets, Management training, Compliance, while continually supporting the General Manager…</t>
-  </si>
-  <si>
-    <t>COMPANY SHARES OVER 4 YEARS | 50% PROFIT SCHEME FOR YOU AND YOUR TEAM | PAID OVERTIME | PENSION ENHANCEMENTS UP TO 10% | TAXI HOME CONTIRBUTIONS | 4-WEEK…</t>
-  </si>
-  <si>
-    <t>Lead the co-ordination of and provide input to, the production of design and build specifications, invitations to tender and tender assessments to ensure they…</t>
-  </si>
-  <si>
-    <t>You enjoy delivering a VIP experience to every guest during night time operations, going above and beyond to make their stay a memorable one.</t>
-  </si>
-  <si>
-    <t>Deliver exceptional customer service every time?</t>
-  </si>
-  <si>
-    <t>An Assistant Manager in a Fraser Hart store will use a variety of leadership skills to drive sales, achieve KPI’s and ultimately maximise store performance.</t>
-  </si>
-  <si>
-    <t>Build a good working relationship with the CEO and receive additional exposure to business duties outside of a traditional Office Manager / EA role.</t>
-  </si>
-  <si>
-    <t>Discounts - You can enjoy a vast range of retail, travel and lifestyle discounts through our benefit scheme.</t>
-  </si>
-  <si>
-    <t>The successful candidate will have experience in a similar role or if you are looking to progress into management full training will be given.</t>
-  </si>
-  <si>
-    <t>Salary between £25000-£32000 depending on experience.</t>
-  </si>
-  <si>
-    <t>Smart uniform provided and laundered.</t>
-  </si>
-  <si>
-    <t>Supporting business connect managers to undertake customer risk assessments.</t>
-  </si>
-  <si>
-    <t>Ensure adherence to quality expectations and standards; and identify, recommend, develop, and implement new ways to increase organizational efficiency,…</t>
+    <t>You'll play a key role in motivating your team, maintaining morale and creating an operation that keeps customers coming back.</t>
+  </si>
+  <si>
+    <t>IT literacy the ability to use Windows based tools, word, windows and excel.</t>
+  </si>
+  <si>
+    <t>Job Type: Full Time, Permanent.</t>
+  </si>
+  <si>
+    <t>View all Balloch House jobs - Alexandria jobs</t>
+  </si>
+  <si>
+    <t>Efficient and highly organized with a customer focused attitude.</t>
+  </si>
+  <si>
+    <t>You will either be working in support of a Project Manager on complex projects/programmes or take ownership and accountability for the successful delivery of…</t>
   </si>
   <si>
     <t>Deliver clear and focused plans that deliver ROI on above the line investment and below the line activation.</t>
   </si>
   <si>
-    <t> Maintain a keen interest in the fashion industry and market trends.</t>
-  </si>
-  <si>
-    <t>You’ll have excellent organisational and prioritisation skills, and the ability to manage your own workload.</t>
-  </si>
-  <si>
-    <t>48-50 Gordon St, Glasgow G1 3PU.</t>
-  </si>
-  <si>
-    <t>Trend aware, fashion conscious and well presented at all times.</t>
-  </si>
-  <si>
-    <t>Contribute to a "top level" customer service, in all aspects, in order to meet effectively and in a timely fashion any request of clientele.</t>
-  </si>
-  <si>
-    <t>Ability to work accurately and efficiently across a wide range of currency timelines, both under own supervision and as part of a team.</t>
-  </si>
-  <si>
-    <t>An achievable quarterly bonus scheme worth up to £6,000 a year.</t>
-  </si>
-  <si>
-    <t>If you have good customer service skills, strong admin abilities and an interest in property then this is a fantastic opening with a well established company.</t>
-  </si>
-  <si>
-    <t>We integrate sustainability into the design and construction of our homes and developments and are working towards our target to reduce carbon emissions from…</t>
+    <t>25% Friends and Family Discount.</t>
+  </si>
+  <si>
+    <t>Support the Site Manager, in ensuring that the on-site Construction team is fully resourced and well-directed, with clear guidelines to their own job…</t>
+  </si>
+  <si>
+    <t>Assisting the branch manager with stocktakes.</t>
+  </si>
+  <si>
+    <t>Responding to leasehold enquiries in a customer focused manner.</t>
+  </si>
+  <si>
+    <t>Experience of building positive working relationships with people who use services and their families, staff and other health and social care professionals.</t>
+  </si>
+  <si>
+    <t>Supporting the creation of IAM solution blueprints and producing high-level designs covering technology and process design.</t>
   </si>
   <si>
     <t>Maintaining a strong brand image and service standards including uniform/presentation standards and customer service.</t>
   </si>
   <si>
-    <t>IT literacy the ability to use Windows based tools, word, windows and excel.</t>
-  </si>
-  <si>
-    <t>Be a champion of brand standards &amp; ensure guest &amp; team safety at all times.</t>
-  </si>
-  <si>
-    <t>Job Type: Full Time, Permanent.</t>
-  </si>
-  <si>
-    <t>Inspire and motivate your colleagues on every shift.</t>
-  </si>
-  <si>
-    <t>To be considered for this operations assistant / manager position you are required to have proven experience and responsibility for the production,…</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>Driving Licence</t>
-  </si>
-  <si>
-    <t>Must be an outgoing and friendly person with good communication skills, able to work on own initiative and as part of a team.</t>
+    <t>Similar to an Assistant Manager or Deputy Manager, an Operations Manager is the go-to person in the store on shift.</t>
+  </si>
+  <si>
+    <t>Experience in prioritising own workload and co-ordinating other team members;</t>
+  </si>
+  <si>
+    <t>A range of benefits are included, staff meals, contributions to travel if you finish late, employee discount in the hotel which extends to boVine restaurant and…</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,22 +1336,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1158,22 +1362,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1184,22 +1388,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1210,22 +1414,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1233,25 +1437,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1259,25 +1463,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1285,25 +1489,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1311,25 +1515,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1337,25 +1541,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1363,25 +1567,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="H11" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1389,25 +1593,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1415,25 +1619,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1441,25 +1645,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1467,25 +1671,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="H15" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1493,25 +1697,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="H16" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1519,25 +1723,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="H17" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1545,25 +1749,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="H18" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1571,25 +1775,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1597,25 +1801,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1623,25 +1827,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1649,25 +1853,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="H22" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1675,25 +1879,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1701,25 +1905,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H24" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1727,25 +1931,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="H25" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1753,25 +1957,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="H26" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1779,25 +1983,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H27" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1805,25 +2009,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1831,25 +2035,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="H29" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1857,25 +2061,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="G30" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="H30" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1883,25 +2087,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="H31" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1909,25 +2113,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="H32" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1935,25 +2139,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1961,25 +2165,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H34" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1987,25 +2191,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="H35" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2013,25 +2217,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G36" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="H36" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2039,25 +2243,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="G37" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="H37" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2065,25 +2269,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H38" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2091,25 +2295,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="H39" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2117,25 +2321,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="H40" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2143,25 +2347,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="H41" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2169,25 +2373,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="H42" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2195,25 +2399,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="H43" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2221,25 +2425,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="G44" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="H44" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2247,25 +2451,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="H45" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2273,25 +2477,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2299,25 +2503,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="G47" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2325,25 +2529,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="H48" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2351,25 +2555,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="G49" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>215</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2377,25 +2581,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="H50" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2403,25 +2607,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="H51" t="s">
-        <v>217</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2429,25 +2633,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="G52" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="H52" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2455,25 +2659,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H53" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2481,25 +2685,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="G54" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H54" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2507,25 +2711,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="F55" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="G55" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="H55" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2533,25 +2737,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="G56" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="H56" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2559,25 +2763,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="H57" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2585,25 +2789,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G58" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="H58" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2611,25 +2815,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="F59" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="G59" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="H59" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2637,25 +2841,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="G60" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="H60" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2663,25 +2867,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="G61" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="H61" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2689,25 +2893,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="G62" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2715,25 +2919,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="F63" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="G63" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H63" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2741,25 +2945,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="G64" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="H64" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2767,25 +2971,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="G65" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="H65" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2793,25 +2997,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="F66" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="H66" t="s">
-        <v>215</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2819,25 +3023,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="F67" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="G67" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H67" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2845,25 +3049,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="H68" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2871,25 +3075,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="G69" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="H69" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2897,25 +3101,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="F70" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="G70" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H70" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2923,25 +3127,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="F71" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="G71" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="H71" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2949,25 +3153,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="F72" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="G72" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="H72" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2975,25 +3179,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="G73" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="H73" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3001,25 +3205,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="F74" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="G74" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H74" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3027,25 +3231,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="F75" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="G75" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="H75" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3053,25 +3257,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F76" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="G76" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="H76" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3079,25 +3283,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="F77" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="G77" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="H77" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3105,25 +3309,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="G78" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="H78" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3131,25 +3335,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="G79" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="H79" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3157,25 +3361,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="F80" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="G80" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3183,25 +3387,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="F81" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="G81" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="H81" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3209,25 +3413,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="G82" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="H82" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3235,25 +3439,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="F83" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="G83" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="H83" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3264,22 +3468,22 @@
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="F84" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="G84" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H84" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3287,25 +3491,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="G85" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="H85" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3313,25 +3517,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="G86" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="H86" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3339,25 +3543,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F87" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="G87" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="H87" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3365,25 +3569,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="F88" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="G88" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="H88" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3391,25 +3595,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D89" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="G89" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="H89" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3417,25 +3621,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D90" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F90" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="G90" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="H90" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3443,25 +3647,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F91" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="G91" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="H91" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3469,25 +3673,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D92" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="F92" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="G92" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="H92" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3495,25 +3699,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="F93" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="G93" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="H93" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3521,25 +3725,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F94" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G94" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="H94" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3547,25 +3751,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F95" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="G95" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3573,25 +3777,25 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D96" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="F96" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="G96" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="H96" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3599,25 +3803,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D97" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F97" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="G97" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="H97" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3625,25 +3829,25 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D98" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="G98" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="H98" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3651,25 +3855,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F99" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="G99" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="H99" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3677,25 +3881,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D100" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F100" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="G100" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="H100" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3703,25 +3907,25 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F101" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="G101" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="H101" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3729,25 +3933,25 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="G102" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="H102" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3755,25 +3959,25 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D103" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="F103" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="G103" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="H103" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3781,25 +3985,25 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F104" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="G104" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H104" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3807,25 +4011,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D105" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F105" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="G105" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="H105" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3833,25 +4037,25 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D106" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="F106" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="G106" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="H106" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3859,25 +4063,25 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D107" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="F107" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="G107" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="H107" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3885,25 +4089,25 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D108" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="F108" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="G108" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="H108" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3911,25 +4115,25 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D109" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="F109" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="G109" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="H109" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3937,25 +4141,25 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D110" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="G110" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H110" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3963,25 +4167,25 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D111" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="F111" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="G111" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="H111" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3989,25 +4193,25 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D112" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="F112" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G112" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="H112" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4015,25 +4219,25 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="F113" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="G113" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="H113" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4041,25 +4245,25 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D114" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="F114" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="G114" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="H114" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4067,25 +4271,25 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D115" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="F115" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="G115" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="H115" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4093,25 +4297,25 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D116" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="F116" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="G116" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="H116" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4119,25 +4323,25 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D117" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="F117" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="G117" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="H117" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4145,25 +4349,25 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D118" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="F118" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="G118" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="H118" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4171,25 +4375,25 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C119" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D119" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="F119" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="G119" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="H119" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4197,25 +4401,25 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D120" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F120" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="G120" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="H120" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4223,25 +4427,25 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D121" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F121" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="G121" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="H121" t="s">
-        <v>226</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4249,25 +4453,25 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D122" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="F122" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="G122" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="H122" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4275,25 +4479,25 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D123" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="G123" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H123" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4301,25 +4505,25 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
         <v>65</v>
       </c>
       <c r="D124" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="F124" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G124" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="H124" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4327,25 +4531,25 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D125" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="F125" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="G125" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="H125" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4353,25 +4557,25 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C126" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D126" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="F126" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="G126" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="H126" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4379,25 +4583,25 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C127" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D127" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="F127" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="G127" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="H127" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4405,25 +4609,25 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D128" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F128" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="G128" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="H128" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4431,25 +4635,25 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D129" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="F129" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="G129" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="H129" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4457,25 +4661,25 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C130" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D130" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="F130" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="G130" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="H130" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4483,25 +4687,25 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D131" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="F131" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="G131" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="H131" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4509,25 +4713,25 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D132" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="F132" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="G132" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H132" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4535,25 +4739,25 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D133" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="F133" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="G133" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="H133" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4561,25 +4765,25 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D134" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="F134" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="G134" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="H134" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4587,25 +4791,25 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D135" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F135" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="G135" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="H135" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4613,25 +4817,25 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D136" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G136" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="H136" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4639,25 +4843,25 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D137" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="F137" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="G137" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="H137" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4665,25 +4869,25 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D138" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="F138" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="G138" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="H138" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4691,25 +4895,25 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D139" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="F139" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="G139" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="H139" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4717,25 +4921,25 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D140" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="G140" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="H140" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4743,25 +4947,25 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C141" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="D141" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="F141" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="G141" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="H141" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4769,25 +4973,25 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D142" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="F142" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="G142" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="H142" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4795,25 +4999,25 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="F143" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="G143" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H143" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4821,25 +5025,25 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C144" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D144" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="F144" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="G144" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="H144" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4847,25 +5051,25 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D145" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="F145" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="G145" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="H145" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4873,25 +5077,25 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D146" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="F146" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G146" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="H146" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4899,25 +5103,25 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D147" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="F147" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="G147" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="H147" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4925,25 +5129,25 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C148" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D148" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="F148" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="G148" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="H148" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4951,25 +5155,25 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D149" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="F149" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="G149" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="H149" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4977,25 +5181,25 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C150" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D150" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="F150" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="G150" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="H150" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5003,25 +5207,805 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
+        <v>89</v>
+      </c>
+      <c r="D151" t="s">
+        <v>101</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F151" t="s">
+        <v>215</v>
+      </c>
+      <c r="G151" t="s">
+        <v>258</v>
+      </c>
+      <c r="H151" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>58</v>
+      </c>
+      <c r="D152" t="s">
+        <v>109</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F152" t="s">
+        <v>199</v>
+      </c>
+      <c r="G152" t="s">
+        <v>239</v>
+      </c>
+      <c r="H152" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153" t="s">
+        <v>130</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F153" t="s">
+        <v>216</v>
+      </c>
+      <c r="G153" t="s">
+        <v>259</v>
+      </c>
+      <c r="H153" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" t="s">
+        <v>91</v>
+      </c>
+      <c r="D154" t="s">
+        <v>131</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F154" t="s">
+        <v>199</v>
+      </c>
+      <c r="G154" t="s">
+        <v>236</v>
+      </c>
+      <c r="H154" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" t="s">
+        <v>115</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F155" t="s">
+        <v>200</v>
+      </c>
+      <c r="G155" t="s">
+        <v>242</v>
+      </c>
+      <c r="H155" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>92</v>
+      </c>
+      <c r="D156" t="s">
+        <v>115</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F156" t="s">
+        <v>206</v>
+      </c>
+      <c r="G156" t="s">
+        <v>236</v>
+      </c>
+      <c r="H156" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>58</v>
+      </c>
+      <c r="D157" t="s">
+        <v>109</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F157" t="s">
+        <v>211</v>
+      </c>
+      <c r="G157" t="s">
+        <v>239</v>
+      </c>
+      <c r="H157" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>59</v>
+      </c>
+      <c r="D158" t="s">
+        <v>110</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F158" t="s">
+        <v>220</v>
+      </c>
+      <c r="G158" t="s">
+        <v>240</v>
+      </c>
+      <c r="H158" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>60</v>
+      </c>
+      <c r="D159" t="s">
+        <v>111</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F159" t="s">
+        <v>196</v>
+      </c>
+      <c r="G159" t="s">
+        <v>241</v>
+      </c>
+      <c r="H159" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>61</v>
+      </c>
+      <c r="D160" t="s">
+        <v>108</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F160" t="s">
+        <v>213</v>
+      </c>
+      <c r="G160" t="s">
+        <v>238</v>
+      </c>
+      <c r="H160" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>62</v>
+      </c>
+      <c r="D161" t="s">
+        <v>112</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F161" t="s">
+        <v>222</v>
+      </c>
+      <c r="G161" t="s">
+        <v>236</v>
+      </c>
+      <c r="H161" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>113</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F162" t="s">
+        <v>218</v>
+      </c>
+      <c r="G162" t="s">
+        <v>241</v>
+      </c>
+      <c r="H162" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" t="s">
         <v>64</v>
       </c>
-      <c r="D151" t="s">
-        <v>96</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="D163" t="s">
+        <v>114</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F163" t="s">
+        <v>217</v>
+      </c>
+      <c r="G163" t="s">
+        <v>236</v>
+      </c>
+      <c r="H163" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" t="s">
+        <v>65</v>
+      </c>
+      <c r="D164" t="s">
+        <v>115</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F164" t="s">
+        <v>200</v>
+      </c>
+      <c r="G164" t="s">
+        <v>242</v>
+      </c>
+      <c r="H164" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="G151" t="s">
-        <v>191</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>66</v>
+      </c>
+      <c r="D165" t="s">
+        <v>116</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F165" t="s">
+        <v>220</v>
+      </c>
+      <c r="G165" t="s">
+        <v>243</v>
+      </c>
+      <c r="H165" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" t="s">
+        <v>67</v>
+      </c>
+      <c r="D166" t="s">
+        <v>117</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F166" t="s">
+        <v>220</v>
+      </c>
+      <c r="G166" t="s">
+        <v>244</v>
+      </c>
+      <c r="H166" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>100</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F167" t="s">
+        <v>223</v>
+      </c>
+      <c r="G167" t="s">
+        <v>236</v>
+      </c>
+      <c r="H167" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s">
+        <v>69</v>
+      </c>
+      <c r="D168" t="s">
+        <v>118</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F168" t="s">
+        <v>222</v>
+      </c>
+      <c r="G168" t="s">
+        <v>245</v>
+      </c>
+      <c r="H168" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>70</v>
+      </c>
+      <c r="D169" t="s">
+        <v>100</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F169" t="s">
+        <v>224</v>
+      </c>
+      <c r="G169" t="s">
+        <v>246</v>
+      </c>
+      <c r="H169" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>71</v>
+      </c>
+      <c r="D170" t="s">
+        <v>101</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F170" t="s">
+        <v>202</v>
+      </c>
+      <c r="G170" t="s">
+        <v>247</v>
+      </c>
+      <c r="H170" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>72</v>
+      </c>
+      <c r="D171" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F171" t="s">
+        <v>218</v>
+      </c>
+      <c r="G171" t="s">
+        <v>248</v>
+      </c>
+      <c r="H171" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" t="s">
+        <v>73</v>
+      </c>
+      <c r="D172" t="s">
+        <v>100</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F172" t="s">
+        <v>218</v>
+      </c>
+      <c r="G172" t="s">
+        <v>249</v>
+      </c>
+      <c r="H172" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" t="s">
+        <v>74</v>
+      </c>
+      <c r="D173" t="s">
+        <v>120</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F173" t="s">
+        <v>224</v>
+      </c>
+      <c r="G173" t="s">
+        <v>250</v>
+      </c>
+      <c r="H173" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" t="s">
+        <v>75</v>
+      </c>
+      <c r="D174" t="s">
+        <v>121</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F174" t="s">
+        <v>220</v>
+      </c>
+      <c r="G174" t="s">
+        <v>236</v>
+      </c>
+      <c r="H174" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="s">
+        <v>53</v>
+      </c>
+      <c r="D175" t="s">
+        <v>105</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F175" t="s">
+        <v>222</v>
+      </c>
+      <c r="G175" t="s">
+        <v>251</v>
+      </c>
+      <c r="H175" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" t="s">
+        <v>76</v>
+      </c>
+      <c r="D176" t="s">
+        <v>122</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F176" t="s">
+        <v>196</v>
+      </c>
+      <c r="G176" t="s">
+        <v>252</v>
+      </c>
+      <c r="H176" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" t="s">
+        <v>77</v>
+      </c>
+      <c r="D177" t="s">
+        <v>123</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F177" t="s">
+        <v>202</v>
+      </c>
+      <c r="G177" t="s">
+        <v>243</v>
+      </c>
+      <c r="H177" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" t="s">
+        <v>78</v>
+      </c>
+      <c r="D178" t="s">
+        <v>118</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F178" t="s">
+        <v>221</v>
+      </c>
+      <c r="G178" t="s">
+        <v>236</v>
+      </c>
+      <c r="H178" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" t="s">
+        <v>79</v>
+      </c>
+      <c r="D179" t="s">
+        <v>100</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F179" t="s">
+        <v>218</v>
+      </c>
+      <c r="G179" t="s">
+        <v>227</v>
+      </c>
+      <c r="H179" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" t="s">
+        <v>80</v>
+      </c>
+      <c r="D180" t="s">
+        <v>105</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F180" t="s">
         <v>225</v>
+      </c>
+      <c r="G180" t="s">
+        <v>236</v>
+      </c>
+      <c r="H180" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181" t="s">
+        <v>81</v>
+      </c>
+      <c r="D181" t="s">
+        <v>124</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F181" t="s">
+        <v>200</v>
+      </c>
+      <c r="G181" t="s">
+        <v>253</v>
+      </c>
+      <c r="H181" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5176,6 +6160,36 @@
     <hyperlink ref="E149" r:id="rId148"/>
     <hyperlink ref="E150" r:id="rId149"/>
     <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+    <hyperlink ref="E163" r:id="rId162"/>
+    <hyperlink ref="E164" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E166" r:id="rId165"/>
+    <hyperlink ref="E167" r:id="rId166"/>
+    <hyperlink ref="E168" r:id="rId167"/>
+    <hyperlink ref="E169" r:id="rId168"/>
+    <hyperlink ref="E170" r:id="rId169"/>
+    <hyperlink ref="E171" r:id="rId170"/>
+    <hyperlink ref="E172" r:id="rId171"/>
+    <hyperlink ref="E173" r:id="rId172"/>
+    <hyperlink ref="E174" r:id="rId173"/>
+    <hyperlink ref="E175" r:id="rId174"/>
+    <hyperlink ref="E176" r:id="rId175"/>
+    <hyperlink ref="E177" r:id="rId176"/>
+    <hyperlink ref="E178" r:id="rId177"/>
+    <hyperlink ref="E179" r:id="rId178"/>
+    <hyperlink ref="E180" r:id="rId179"/>
+    <hyperlink ref="E181" r:id="rId180"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
